--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,147 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -811,60 +817,66 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
       </c>
       <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,34 +893,35 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
+      <c r="K12" s="3">
+        <v>200</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1007,28 +1026,31 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="E17" s="3">
         <v>2500</v>
       </c>
       <c r="F17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2800</v>
       </c>
       <c r="M17" s="3">
         <v>2800</v>
       </c>
       <c r="N17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="O17" s="3">
         <v>2700</v>
       </c>
       <c r="P17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,35 +1210,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1222,52 +1255,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2100</v>
       </c>
       <c r="M21" s="3">
         <v>-2100</v>
       </c>
       <c r="N21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2400</v>
       </c>
       <c r="P21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,19 +1317,19 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2300</v>
       </c>
       <c r="K23" s="3">
         <v>-2300</v>
       </c>
       <c r="L23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2300</v>
       </c>
       <c r="K26" s="3">
         <v>-2300</v>
       </c>
       <c r="L26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2300</v>
       </c>
       <c r="K27" s="3">
         <v>-2300</v>
       </c>
       <c r="L27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,35 +1772,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1819,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2300</v>
       </c>
       <c r="K33" s="3">
         <v>-2300</v>
       </c>
       <c r="L33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2300</v>
       </c>
       <c r="K35" s="3">
         <v>-2300</v>
       </c>
       <c r="L35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,84 +2144,90 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1200</v>
       </c>
       <c r="G44" s="3">
         <v>1200</v>
       </c>
       <c r="H44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I44" s="3">
         <v>1100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
@@ -2141,10 +2236,13 @@
         <v>300</v>
       </c>
       <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,10 +2250,10 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2164,16 +2262,16 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2182,57 +2280,63 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2270,57 +2374,63 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E48" s="3">
         <v>2700</v>
       </c>
       <c r="F48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="G48" s="3">
         <v>2500</v>
       </c>
       <c r="H48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="3">
         <v>2400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2200</v>
       </c>
       <c r="J48" s="3">
         <v>2200</v>
       </c>
       <c r="K48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1600</v>
       </c>
       <c r="N48" s="3">
         <v>1600</v>
       </c>
       <c r="O48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2340,7 +2450,7 @@
         <v>500</v>
       </c>
       <c r="I49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J49" s="3">
         <v>600</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,34 +2748,35 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -2655,42 +2785,45 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1600</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2705,125 +2838,134 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2100</v>
       </c>
       <c r="H60" s="3">
         <v>2100</v>
       </c>
       <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1400</v>
       </c>
       <c r="M60" s="3">
         <v>1400</v>
       </c>
       <c r="N60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,34 +2981,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>1000</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4800</v>
       </c>
       <c r="J66" s="3">
         <v>4800</v>
       </c>
       <c r="K66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L66" s="3">
         <v>1300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1400</v>
       </c>
       <c r="M66" s="3">
         <v>1400</v>
       </c>
       <c r="N66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-41200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-38000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-36200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-27300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-24900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2300</v>
       </c>
       <c r="K81" s="3">
         <v>-2300</v>
       </c>
       <c r="L81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,16 +4173,17 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -3975,19 +4195,19 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -3996,10 +4216,13 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,7 +4324,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -4107,31 +4336,34 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4336,23 +4581,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4363,13 +4608,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>10200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,75 +751,81 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>700</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -820,63 +834,75 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,40 +920,42 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>8</v>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,40 +1022,46 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1029,14 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,19 +1090,19 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1800</v>
       </c>
       <c r="H18" s="3">
         <v>-1100</v>
       </c>
       <c r="I18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,32 +1288,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-300</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1258,60 +1326,72 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1320,23 +1400,23 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,32 +1924,32 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>300</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1822,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,196 +2327,226 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1500</v>
       </c>
       <c r="L44" s="3">
         <v>1400</v>
       </c>
       <c r="M44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O44" s="3">
         <v>800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2377,60 +2587,72 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2453,10 +2675,10 @@
         <v>500</v>
       </c>
       <c r="J49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L49" s="3">
         <v>600</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>7300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,16 +3009,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
@@ -2767,70 +3029,76 @@
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
+        <v>400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -2841,137 +3109,155 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>900</v>
-      </c>
-      <c r="P59" s="3">
-        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>700</v>
+      </c>
+      <c r="S59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2000</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,40 +3270,46 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>5800</v>
       </c>
       <c r="I66" s="3">
         <v>5200</v>
       </c>
       <c r="J66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-45100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-44000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-41200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-39900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-38000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-36200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-33800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-31500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-29400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-27300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-24900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4183,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -4198,13 +4640,13 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -4213,16 +4655,22 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,22 +4769,28 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -4339,13 +4799,13 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,41 +5055,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>3900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4611,13 +5103,19 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>10200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>7700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,31 +811,31 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
@@ -840,69 +847,75 @@
         <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>900</v>
       </c>
       <c r="H10" s="3">
         <v>900</v>
       </c>
       <c r="I10" s="3">
+        <v>900</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,31 +948,31 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>-100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
+      <c r="N12" s="3">
+        <v>200</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1075,19 +1095,22 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1096,16 +1119,16 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2500</v>
       </c>
       <c r="H17" s="3">
         <v>2500</v>
       </c>
       <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2800</v>
       </c>
       <c r="P17" s="3">
         <v>2800</v>
       </c>
       <c r="Q17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="R17" s="3">
         <v>2700</v>
       </c>
       <c r="S17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,35 +1322,35 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2100</v>
       </c>
       <c r="P21" s="3">
         <v>-2100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2400</v>
       </c>
       <c r="S21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1406,19 +1446,19 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2300</v>
       </c>
       <c r="N23" s="3">
         <v>-2300</v>
       </c>
       <c r="O23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2300</v>
       </c>
       <c r="N26" s="3">
         <v>-2300</v>
       </c>
       <c r="O26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-2300</v>
       </c>
       <c r="N27" s="3">
         <v>-2300</v>
       </c>
       <c r="O27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,35 +1994,35 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-2300</v>
       </c>
       <c r="N33" s="3">
         <v>-2300</v>
       </c>
       <c r="O33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-2300</v>
       </c>
       <c r="N35" s="3">
         <v>-2300</v>
       </c>
       <c r="O35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2395,40 +2491,40 @@
         <v>800</v>
       </c>
       <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1200</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
       </c>
       <c r="K44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2437,10 +2533,13 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,7 +2547,7 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2457,10 +2556,10 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2469,16 +2568,16 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2487,66 +2586,72 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2593,71 +2698,77 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2700</v>
       </c>
       <c r="H48" s="3">
         <v>2700</v>
       </c>
       <c r="I48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="J48" s="3">
         <v>2500</v>
       </c>
       <c r="K48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L48" s="3">
         <v>2400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2200</v>
       </c>
       <c r="M48" s="3">
         <v>2200</v>
       </c>
       <c r="N48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O48" s="3">
         <v>1800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1600</v>
       </c>
       <c r="Q48" s="3">
         <v>1600</v>
       </c>
       <c r="R48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="S48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
@@ -2681,7 +2792,7 @@
         <v>500</v>
       </c>
       <c r="L49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M49" s="3">
         <v>600</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E54" s="3">
         <v>7400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,43 +3141,44 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -3056,16 +3187,19 @@
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,34 +3207,34 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1600</v>
       </c>
       <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3115,10 +3249,13 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3129,49 +3266,52 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3319,55 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2100</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1400</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
       <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,35 +3375,35 @@
         <v>1700</v>
       </c>
       <c r="E61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,31 +3434,31 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1000</v>
       </c>
       <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>1000</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4800</v>
       </c>
       <c r="M66" s="3">
         <v>4800</v>
       </c>
       <c r="N66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O66" s="3">
         <v>1300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1400</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-44600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-24900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-2300</v>
       </c>
       <c r="N81" s="3">
         <v>-2300</v>
       </c>
       <c r="O81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-1000</v>
       </c>
       <c r="F89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4631,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -4646,19 +4867,19 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -4667,10 +4888,13 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -4805,31 +5035,34 @@
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,20 +5304,23 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5082,23 +5328,23 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>3900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>10200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
@@ -764,84 +771,90 @@
         <v>500</v>
       </c>
       <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
@@ -850,16 +863,22 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,55 +886,61 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,40 +972,40 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1081,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-400</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>-400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1077,20 +1116,20 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1098,14 +1137,20 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,25 +1161,25 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1800</v>
       </c>
       <c r="K18" s="3">
         <v>-1100</v>
       </c>
       <c r="L18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,38 +1392,38 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-300</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1369,64 +1436,76 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1449,23 +1528,23 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-2600</v>
       </c>
       <c r="T23" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-2600</v>
       </c>
       <c r="T26" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-2600</v>
       </c>
       <c r="T27" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,38 +2136,38 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>300</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-2600</v>
       </c>
       <c r="T33" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-2600</v>
       </c>
       <c r="T35" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>9200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2605,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>500</v>
+      </c>
+      <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2491,167 +2682,185 @@
         <v>800</v>
       </c>
       <c r="E44" s="3">
+        <v>900</v>
+      </c>
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1500</v>
       </c>
       <c r="O44" s="3">
         <v>1400</v>
       </c>
       <c r="P44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R44" s="3">
         <v>800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
       </c>
       <c r="T44" s="3">
+        <v>300</v>
+      </c>
+      <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>9700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2701,69 +2910,81 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,10 +2992,10 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
@@ -2795,10 +3016,10 @@
         <v>500</v>
       </c>
       <c r="M49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O49" s="3">
         <v>600</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>600</v>
+      </c>
+      <c r="V49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F54" s="3">
         <v>6800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,25 +3401,27 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
@@ -3169,79 +3430,85 @@
         <v>700</v>
       </c>
       <c r="K57" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
       </c>
       <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
@@ -3252,164 +3519,182 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="E59" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2000</v>
       </c>
       <c r="N60" s="3">
         <v>2100</v>
       </c>
       <c r="O60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,49 +3707,55 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>5800</v>
       </c>
       <c r="L66" s="3">
         <v>5200</v>
       </c>
       <c r="M66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-49500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-47500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-46700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-45100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-44600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-44000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-41200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-39900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-38000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-36200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-33800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-29400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-27300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-24900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F76" s="3">
         <v>3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2800</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-2600</v>
       </c>
       <c r="T81" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4855,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -4870,13 +5311,13 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -4885,16 +5326,22 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5020,16 +5479,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -5038,13 +5497,13 @@
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5792,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>3900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5358,13 +5849,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>10200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>7700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,40 +831,40 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>400</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -869,78 +876,84 @@
         <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>900</v>
       </c>
       <c r="K10" s="3">
         <v>900</v>
       </c>
       <c r="L10" s="3">
+        <v>900</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,10 +986,10 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -984,31 +998,31 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>-100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
+      <c r="Q12" s="3">
+        <v>200</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>8</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,28 +1104,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-400</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1122,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1158,13 +1181,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1173,16 +1196,16 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2500</v>
       </c>
       <c r="K17" s="3">
         <v>2500</v>
       </c>
       <c r="L17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2800</v>
       </c>
       <c r="S17" s="3">
         <v>2800</v>
       </c>
       <c r="T17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="U17" s="3">
         <v>2700</v>
       </c>
       <c r="V17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1398,35 +1432,35 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2100</v>
       </c>
       <c r="S21" s="3">
         <v>-2100</v>
       </c>
       <c r="T21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-2400</v>
       </c>
       <c r="V21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1562,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1534,19 +1574,19 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q23" s="3">
         <v>-2300</v>
       </c>
       <c r="R23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q26" s="3">
         <v>-2300</v>
       </c>
       <c r="R26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q27" s="3">
         <v>-2300</v>
       </c>
       <c r="R27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2142,35 +2212,35 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q33" s="3">
         <v>-2300</v>
       </c>
       <c r="R33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q35" s="3">
         <v>-2300</v>
       </c>
       <c r="R35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,120 +2701,126 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>800</v>
       </c>
       <c r="G44" s="3">
         <v>800</v>
       </c>
       <c r="H44" s="3">
+        <v>800</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1200</v>
       </c>
       <c r="M44" s="3">
         <v>1200</v>
       </c>
       <c r="N44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O44" s="3">
         <v>1100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -2733,10 +2829,13 @@
         <v>300</v>
       </c>
       <c r="V44" s="3">
+        <v>300</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,13 +2846,13 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2762,10 +2861,10 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2774,16 +2873,16 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2792,75 +2891,81 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2916,75 +3021,81 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>100</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2700</v>
       </c>
       <c r="K48" s="3">
         <v>2700</v>
       </c>
       <c r="L48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M48" s="3">
         <v>2500</v>
       </c>
       <c r="N48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O48" s="3">
         <v>2400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2200</v>
       </c>
       <c r="P48" s="3">
         <v>2200</v>
       </c>
       <c r="Q48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1600</v>
       </c>
       <c r="T48" s="3">
         <v>1600</v>
       </c>
       <c r="U48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="V48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2998,7 +3109,7 @@
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
@@ -3022,7 +3133,7 @@
         <v>500</v>
       </c>
       <c r="O49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>600</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E54" s="3">
         <v>5900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,52 +3533,53 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>600</v>
       </c>
       <c r="J57" s="3">
+        <v>600</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3457,60 +3588,63 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1600</v>
       </c>
       <c r="L58" s="3">
         <v>1600</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3525,21 +3659,24 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>600</v>
@@ -3548,111 +3685,117 @@
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1100</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2100</v>
       </c>
       <c r="N60" s="3">
         <v>2100</v>
       </c>
       <c r="O60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1400</v>
       </c>
       <c r="S60" s="3">
         <v>1400</v>
       </c>
       <c r="T60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,44 +3803,44 @@
         <v>600</v>
       </c>
       <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1700</v>
       </c>
       <c r="G61" s="3">
         <v>1700</v>
       </c>
       <c r="H61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,10 +3868,10 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3734,31 +3880,31 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>1000</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>4800</v>
       </c>
       <c r="P66" s="3">
         <v>4800</v>
       </c>
       <c r="Q66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R66" s="3">
         <v>1300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1400</v>
       </c>
       <c r="S66" s="3">
         <v>1400</v>
       </c>
       <c r="T66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-49500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-46700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-45100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-44600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-39900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-24900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q81" s="3">
         <v>-2300</v>
       </c>
       <c r="R81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1000</v>
       </c>
       <c r="H89" s="3">
         <v>-1000</v>
       </c>
       <c r="I89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5302,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -5317,19 +5538,19 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5338,10 +5559,13 @@
         <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5485,13 +5715,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -5503,31 +5733,34 @@
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,29 +6041,32 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5828,23 +6074,23 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>3900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>10200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,216 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E9" s="3">
         <v>700</v>
       </c>
       <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
@@ -879,81 +886,87 @@
         <v>300</v>
       </c>
       <c r="U9" s="3">
+        <v>300</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>900</v>
       </c>
       <c r="L10" s="3">
         <v>900</v>
       </c>
       <c r="M10" s="3">
+        <v>900</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,22 +990,23 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1001,31 +1015,31 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>-100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
+      <c r="R12" s="3">
+        <v>200</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1166,31 +1186,34 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>200</v>
@@ -1199,16 +1222,16 @@
         <v>200</v>
       </c>
       <c r="K15" s="3">
+        <v>200</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>100</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2500</v>
       </c>
       <c r="L17" s="3">
         <v>2500</v>
       </c>
       <c r="M17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2800</v>
       </c>
       <c r="T17" s="3">
         <v>2800</v>
       </c>
       <c r="U17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="V17" s="3">
         <v>2700</v>
       </c>
       <c r="W17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1435,35 +1469,35 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1479,78 +1513,84 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2100</v>
       </c>
       <c r="T21" s="3">
         <v>-2100</v>
       </c>
       <c r="U21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-2400</v>
       </c>
       <c r="W21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1565,7 +1605,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
@@ -1577,19 +1617,19 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2300</v>
       </c>
       <c r="R23" s="3">
         <v>-2300</v>
       </c>
       <c r="S23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2300</v>
       </c>
       <c r="R26" s="3">
         <v>-2300</v>
       </c>
       <c r="S26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-2300</v>
       </c>
       <c r="R27" s="3">
         <v>-2300</v>
       </c>
       <c r="S27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2215,35 +2285,35 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-2300</v>
       </c>
       <c r="R33" s="3">
         <v>-2300</v>
       </c>
       <c r="S33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-2300</v>
       </c>
       <c r="R35" s="3">
         <v>-2300</v>
       </c>
       <c r="S35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,126 +2794,132 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>800</v>
       </c>
       <c r="H44" s="3">
         <v>800</v>
       </c>
       <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1200</v>
       </c>
       <c r="N44" s="3">
         <v>1200</v>
       </c>
       <c r="O44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P44" s="3">
         <v>1100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>800</v>
-      </c>
-      <c r="T44" s="3">
-        <v>300</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -2832,10 +2928,13 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2849,13 +2948,13 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2864,10 +2963,10 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2876,16 +2975,16 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2894,78 +2993,84 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E46" s="3">
         <v>8600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3024,13 +3129,16 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
         <v>100</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,64 +3146,67 @@
         <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2700</v>
       </c>
       <c r="L48" s="3">
         <v>2700</v>
       </c>
       <c r="M48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N48" s="3">
         <v>2500</v>
       </c>
       <c r="O48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P48" s="3">
         <v>2400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2200</v>
       </c>
       <c r="Q48" s="3">
         <v>2200</v>
       </c>
       <c r="R48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1600</v>
       </c>
       <c r="U48" s="3">
         <v>1600</v>
       </c>
       <c r="V48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="W48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3112,7 +3223,7 @@
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -3136,7 +3247,7 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>600</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E54" s="3">
         <v>10800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,55 +3664,56 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -3591,63 +3722,66 @@
         <v>400</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>1700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1600</v>
       </c>
       <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3662,10 +3796,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,13 +3810,13 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
@@ -3688,162 +3825,168 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1100</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2100</v>
       </c>
       <c r="O60" s="3">
         <v>2100</v>
       </c>
       <c r="P60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1400</v>
       </c>
       <c r="T60" s="3">
         <v>1400</v>
       </c>
       <c r="U60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
       </c>
       <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>1200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1700</v>
       </c>
       <c r="H61" s="3">
         <v>1700</v>
       </c>
       <c r="I61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,22 +4002,25 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -3883,31 +4029,31 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1000</v>
       </c>
       <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>1000</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>4800</v>
       </c>
       <c r="Q66" s="3">
         <v>4800</v>
       </c>
       <c r="R66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S66" s="3">
         <v>1300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1400</v>
       </c>
       <c r="T66" s="3">
         <v>1400</v>
       </c>
       <c r="U66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-44600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-41200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-31500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-27300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-24900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
         <v>8400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2800</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-2300</v>
       </c>
       <c r="R81" s="3">
         <v>-2300</v>
       </c>
       <c r="S81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1000</v>
       </c>
       <c r="I89" s="3">
         <v>-1000</v>
       </c>
       <c r="J89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,13 +5719,14 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5526,10 +5747,10 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
@@ -5541,19 +5762,19 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -5562,10 +5783,13 @@
         <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,13 +5921,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5718,13 +5948,13 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -5736,31 +5966,34 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,32 +6287,35 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6077,23 +6323,23 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>3900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6104,13 +6350,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>10200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,225 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>700</v>
       </c>
       <c r="F9" s="3">
         <v>700</v>
       </c>
       <c r="G9" s="3">
+        <v>700</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
@@ -889,84 +895,90 @@
         <v>300</v>
       </c>
       <c r="V9" s="3">
+        <v>300</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
       </c>
       <c r="M10" s="3">
         <v>900</v>
       </c>
       <c r="N10" s="3">
+        <v>900</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,25 +1003,26 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1018,31 +1031,31 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>-100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
+      <c r="S12" s="3">
+        <v>200</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,25 +1155,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1168,8 +1187,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,19 +1226,19 @@
         <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
@@ -1225,16 +1247,16 @@
         <v>200</v>
       </c>
       <c r="L15" s="3">
+        <v>200</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>200</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2500</v>
       </c>
       <c r="M17" s="3">
         <v>2500</v>
       </c>
       <c r="N17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2800</v>
       </c>
       <c r="U17" s="3">
         <v>2800</v>
       </c>
       <c r="V17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="W17" s="3">
         <v>2700</v>
       </c>
       <c r="X17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1480,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1472,35 +1505,35 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-2100</v>
       </c>
       <c r="U21" s="3">
         <v>-2100</v>
       </c>
       <c r="V21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-2400</v>
       </c>
       <c r="X21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1608,7 +1647,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1620,19 +1659,19 @@
         <v>300</v>
       </c>
       <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2300</v>
       </c>
       <c r="S23" s="3">
         <v>-2300</v>
       </c>
       <c r="T23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-2300</v>
       </c>
       <c r="S26" s="3">
         <v>-2300</v>
       </c>
       <c r="T26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-2300</v>
       </c>
       <c r="S27" s="3">
         <v>-2300</v>
       </c>
       <c r="T27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2330,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2288,35 +2357,35 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-2300</v>
       </c>
       <c r="S33" s="3">
         <v>-2300</v>
       </c>
       <c r="T33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-2300</v>
       </c>
       <c r="S35" s="3">
         <v>-2300</v>
       </c>
       <c r="T35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>7400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,123 +2898,126 @@
         <v>1200</v>
       </c>
       <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>800</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
       </c>
       <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1200</v>
       </c>
       <c r="O44" s="3">
         <v>1200</v>
       </c>
       <c r="P44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>800</v>
-      </c>
-      <c r="U44" s="3">
-        <v>300</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
@@ -2931,10 +3026,13 @@
         <v>300</v>
       </c>
       <c r="X44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2951,13 +3049,13 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2966,10 +3064,10 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2978,16 +3076,16 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -2996,81 +3094,87 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E46" s="3">
         <v>8800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3132,81 +3236,87 @@
         <v>0</v>
       </c>
       <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>100</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
       </c>
       <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2700</v>
       </c>
       <c r="M48" s="3">
         <v>2700</v>
       </c>
       <c r="N48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="O48" s="3">
         <v>2500</v>
       </c>
       <c r="P48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2200</v>
       </c>
       <c r="R48" s="3">
         <v>2200</v>
       </c>
       <c r="S48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T48" s="3">
         <v>1800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1700</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1600</v>
       </c>
       <c r="V48" s="3">
         <v>1600</v>
       </c>
       <c r="W48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="X48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3226,7 +3336,7 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -3250,7 +3360,7 @@
         <v>500</v>
       </c>
       <c r="Q49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>600</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E54" s="3">
         <v>11100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,58 +3794,59 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
       </c>
       <c r="K57" s="3">
         <v>600</v>
       </c>
       <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
@@ -3725,66 +3855,69 @@
         <v>400</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>1700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1600</v>
       </c>
       <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="O58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3799,27 +3932,30 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -3828,168 +3964,174 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1100</v>
       </c>
       <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2100</v>
       </c>
       <c r="P60" s="3">
         <v>2100</v>
       </c>
       <c r="Q60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1400</v>
       </c>
       <c r="U60" s="3">
         <v>1400</v>
       </c>
       <c r="V60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>600</v>
       </c>
       <c r="G61" s="3">
+        <v>600</v>
+      </c>
+      <c r="H61" s="3">
         <v>1200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1700</v>
       </c>
       <c r="I61" s="3">
         <v>1700</v>
       </c>
       <c r="J61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,16 +4159,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -4032,31 +4177,31 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1000</v>
       </c>
       <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>1000</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>4800</v>
       </c>
       <c r="R66" s="3">
         <v>4800</v>
       </c>
       <c r="S66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="T66" s="3">
         <v>1300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1400</v>
       </c>
       <c r="U66" s="3">
         <v>1400</v>
       </c>
       <c r="V66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-49500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-41200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-38000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-33800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-29400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-27300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-24900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
         <v>0</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-2300</v>
       </c>
       <c r="S81" s="3">
         <v>-2300</v>
       </c>
       <c r="T81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1000</v>
       </c>
       <c r="J89" s="3">
         <v>-1000</v>
       </c>
       <c r="K89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,17 +5939,18 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5750,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -5765,19 +5985,19 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
@@ -5786,10 +6006,13 @@
         <v>-100</v>
       </c>
       <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,17 +6150,20 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5951,13 +6180,13 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
@@ -5969,31 +6198,34 @@
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,26 +6544,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6326,23 +6571,23 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>3900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6353,13 +6598,16 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>10200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,120 +777,123 @@
         <v>2500</v>
       </c>
       <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>700</v>
       </c>
       <c r="G9" s="3">
         <v>700</v>
       </c>
       <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
       </c>
       <c r="K9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
@@ -898,87 +905,93 @@
         <v>300</v>
       </c>
       <c r="W9" s="3">
+        <v>300</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>800</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
-      </c>
-      <c r="M10" s="3">
-        <v>900</v>
       </c>
       <c r="N10" s="3">
         <v>900</v>
       </c>
       <c r="O10" s="3">
+        <v>900</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,28 +1017,29 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1034,31 +1048,31 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>-100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>200</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
+      <c r="T12" s="3">
+        <v>200</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>8</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,37 +1163,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1190,8 +1210,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1199,8 +1219,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1211,14 +1231,17 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,19 +1252,19 @@
         <v>200</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -1250,16 +1273,16 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
+        <v>200</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>3400</v>
       </c>
       <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2500</v>
       </c>
       <c r="N17" s="3">
         <v>2500</v>
       </c>
       <c r="O17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2800</v>
       </c>
       <c r="V17" s="3">
         <v>2800</v>
       </c>
       <c r="W17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="X17" s="3">
         <v>2700</v>
       </c>
       <c r="Y17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,13 +1514,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1508,35 +1542,35 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1552,79 +1586,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-2100</v>
       </c>
       <c r="V21" s="3">
         <v>-2100</v>
       </c>
       <c r="W21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-2400</v>
       </c>
       <c r="Y21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1650,7 +1690,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1662,19 +1702,19 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-2300</v>
       </c>
       <c r="T23" s="3">
         <v>-2300</v>
       </c>
       <c r="U23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-900</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-2300</v>
       </c>
       <c r="T26" s="3">
         <v>-2300</v>
       </c>
       <c r="U26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-2300</v>
       </c>
       <c r="T27" s="3">
         <v>-2300</v>
       </c>
       <c r="U27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2400,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2360,35 +2430,35 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-2300</v>
       </c>
       <c r="T33" s="3">
         <v>-2300</v>
       </c>
       <c r="U33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-2300</v>
       </c>
       <c r="T35" s="3">
         <v>-2300</v>
       </c>
       <c r="U35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>7400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,138 +2979,144 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="3">
         <v>1200</v>
       </c>
       <c r="F43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
-      </c>
-      <c r="S43" s="3">
-        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
       </c>
       <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1200</v>
       </c>
       <c r="P44" s="3">
         <v>1200</v>
       </c>
       <c r="Q44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R44" s="3">
         <v>1100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>800</v>
-      </c>
-      <c r="V44" s="3">
-        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
@@ -3029,15 +3125,18 @@
         <v>300</v>
       </c>
       <c r="Y44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -3052,13 +3151,13 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3067,10 +3166,10 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3079,16 +3178,16 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3097,84 +3196,90 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3239,84 +3344,90 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1800</v>
       </c>
       <c r="F48" s="3">
         <v>1800</v>
       </c>
       <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2700</v>
       </c>
       <c r="N48" s="3">
         <v>2700</v>
       </c>
       <c r="O48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="P48" s="3">
         <v>2500</v>
       </c>
       <c r="Q48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R48" s="3">
         <v>2400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2200</v>
       </c>
       <c r="S48" s="3">
         <v>2200</v>
       </c>
       <c r="T48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U48" s="3">
         <v>1800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1600</v>
       </c>
       <c r="W48" s="3">
         <v>1600</v>
       </c>
       <c r="X48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Y48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3339,7 +3450,7 @@
         <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>500</v>
@@ -3363,7 +3474,7 @@
         <v>500</v>
       </c>
       <c r="R49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S49" s="3">
         <v>600</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E54" s="3">
         <v>9700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,61 +3925,62 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
@@ -3858,69 +3989,72 @@
         <v>400</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>1700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1600</v>
       </c>
       <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3935,30 +4069,33 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -3967,120 +4104,126 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2100</v>
       </c>
       <c r="Q60" s="3">
         <v>2100</v>
       </c>
       <c r="R60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1400</v>
       </c>
       <c r="V60" s="3">
         <v>1400</v>
       </c>
       <c r="W60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,53 +4231,53 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>600</v>
       </c>
       <c r="H61" s="3">
+        <v>600</v>
+      </c>
+      <c r="I61" s="3">
         <v>1200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1700</v>
       </c>
       <c r="J61" s="3">
         <v>1700</v>
       </c>
       <c r="K61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4162,16 +4308,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -4180,31 +4326,31 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1000</v>
       </c>
       <c r="S62" s="3">
         <v>1000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3">
+        <v>1000</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>4800</v>
       </c>
       <c r="S66" s="3">
         <v>4800</v>
       </c>
       <c r="T66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U66" s="3">
         <v>1300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1400</v>
       </c>
       <c r="V66" s="3">
         <v>1400</v>
       </c>
       <c r="W66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-50900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-49500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-45100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-33800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-29400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-24900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
       <c r="Q76" s="3">
         <v>0</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-2300</v>
       </c>
       <c r="T81" s="3">
         <v>-2300</v>
       </c>
       <c r="U81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-1100</v>
       </c>
       <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1000</v>
       </c>
       <c r="K89" s="3">
         <v>-1000</v>
       </c>
       <c r="L89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5949,11 +6170,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5973,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -5988,19 +6209,19 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
@@ -6009,10 +6230,13 @@
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,11 +6392,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6183,13 +6413,13 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
@@ -6201,31 +6431,34 @@
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,26 +6793,26 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6574,23 +6820,23 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>3900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6601,13 +6847,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>10200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,238 +665,245 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E8" s="3">
         <v>2500</v>
       </c>
       <c r="F8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
-        <v>700</v>
-      </c>
       <c r="H9" s="3">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="I9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="3">
         <v>600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
       </c>
       <c r="L9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
-      </c>
-      <c r="T9" s="3">
-        <v>300</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
@@ -908,90 +915,96 @@
         <v>300</v>
       </c>
       <c r="X9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="G10" s="3">
-        <v>600</v>
-      </c>
       <c r="H10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>900</v>
       </c>
       <c r="O10" s="3">
         <v>900</v>
       </c>
       <c r="P10" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,31 +1031,32 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1051,31 +1065,31 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>-100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
+      <c r="U12" s="3">
+        <v>200</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,40 +1183,43 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1213,8 +1233,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1234,19 +1254,22 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1255,19 +1278,19 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
       <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1276,16 +1299,16 @@
         <v>200</v>
       </c>
       <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2500</v>
       </c>
       <c r="O17" s="3">
         <v>2500</v>
       </c>
       <c r="P17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2800</v>
       </c>
       <c r="W17" s="3">
         <v>2800</v>
       </c>
       <c r="X17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="Y17" s="3">
         <v>2700</v>
       </c>
       <c r="Z17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AA17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1545,35 +1579,35 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1589,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-500</v>
-      </c>
       <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-400</v>
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-2100</v>
       </c>
       <c r="W21" s="3">
         <v>-2100</v>
       </c>
       <c r="X21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-2400</v>
       </c>
       <c r="Z21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1693,7 +1733,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>300</v>
@@ -1705,19 +1745,19 @@
         <v>300</v>
       </c>
       <c r="P22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-2300</v>
       </c>
       <c r="U23" s="3">
         <v>-2300</v>
       </c>
       <c r="V23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-2300</v>
       </c>
       <c r="U26" s="3">
         <v>-2300</v>
       </c>
       <c r="V26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-2300</v>
       </c>
       <c r="U27" s="3">
         <v>-2300</v>
       </c>
       <c r="V27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2433,35 +2503,35 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-2300</v>
       </c>
       <c r="U33" s="3">
         <v>-2300</v>
       </c>
       <c r="V33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-2300</v>
       </c>
       <c r="U35" s="3">
         <v>-2300</v>
       </c>
       <c r="V35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>7400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,144 +3072,150 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1200</v>
       </c>
       <c r="F43" s="3">
         <v>1200</v>
       </c>
       <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>800</v>
       </c>
       <c r="L44" s="3">
+        <v>800</v>
+      </c>
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1200</v>
       </c>
       <c r="Q44" s="3">
         <v>1200</v>
       </c>
       <c r="R44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S44" s="3">
         <v>1100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>800</v>
-      </c>
-      <c r="W44" s="3">
-        <v>300</v>
       </c>
       <c r="X44" s="3">
         <v>300</v>
@@ -3128,18 +3224,21 @@
         <v>300</v>
       </c>
       <c r="Z44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
@@ -3154,13 +3253,13 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3169,10 +3268,10 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3181,16 +3280,16 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3199,87 +3298,93 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
         <v>7400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3347,92 +3452,98 @@
         <v>0</v>
       </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>100</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
       </c>
       <c r="H48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2700</v>
       </c>
       <c r="O48" s="3">
         <v>2700</v>
       </c>
       <c r="P48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="Q48" s="3">
         <v>2500</v>
       </c>
       <c r="R48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="S48" s="3">
         <v>2400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2200</v>
       </c>
       <c r="T48" s="3">
         <v>2200</v>
       </c>
       <c r="U48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V48" s="3">
         <v>1800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1700</v>
-      </c>
-      <c r="W48" s="3">
-        <v>1600</v>
       </c>
       <c r="X48" s="3">
         <v>1600</v>
       </c>
       <c r="Y48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="Z48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
@@ -3453,7 +3564,7 @@
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
@@ -3477,7 +3588,7 @@
         <v>500</v>
       </c>
       <c r="S49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T49" s="3">
         <v>600</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E54" s="3">
         <v>9300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,64 +4056,65 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
@@ -3992,72 +4123,75 @@
         <v>400</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1600</v>
       </c>
       <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4072,10 +4206,13 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4086,19 +4223,19 @@
         <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
       </c>
       <c r="H59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
@@ -4107,123 +4244,129 @@
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1100</v>
       </c>
       <c r="K60" s="3">
         <v>1100</v>
       </c>
       <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2100</v>
       </c>
       <c r="R60" s="3">
         <v>2100</v>
       </c>
       <c r="S60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1400</v>
       </c>
       <c r="W60" s="3">
         <v>1400</v>
       </c>
       <c r="X60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4234,53 +4377,53 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>600</v>
       </c>
       <c r="I61" s="3">
+        <v>600</v>
+      </c>
+      <c r="J61" s="3">
         <v>1200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1700</v>
       </c>
       <c r="K61" s="3">
         <v>1700</v>
       </c>
       <c r="L61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4311,16 +4457,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -4329,31 +4475,31 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1000</v>
       </c>
       <c r="T62" s="3">
         <v>1000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="U62" s="3">
+        <v>1000</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>4800</v>
       </c>
       <c r="T66" s="3">
         <v>4800</v>
       </c>
       <c r="U66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="V66" s="3">
         <v>1300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1400</v>
       </c>
       <c r="W66" s="3">
         <v>1400</v>
       </c>
       <c r="X66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-51800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-51500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-46700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-41200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-33800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-29400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-27300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-24900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
       <c r="R76" s="3">
         <v>0</v>
       </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-2300</v>
       </c>
       <c r="U81" s="3">
         <v>-2300</v>
       </c>
       <c r="V81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-1000</v>
       </c>
       <c r="L89" s="3">
         <v>-1000</v>
       </c>
       <c r="M89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6173,11 +6394,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -6197,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -6212,19 +6433,19 @@
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
@@ -6233,10 +6454,13 @@
         <v>-100</v>
       </c>
       <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,11 +6625,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -6416,13 +6646,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -6434,31 +6664,34 @@
         <v>-200</v>
       </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6796,26 +7042,26 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6823,23 +7069,23 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>3900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2800</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6850,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>10200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>7700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,151 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>500</v>
       </c>
       <c r="M8" s="3">
         <v>700</v>
@@ -811,105 +818,111 @@
         <v>500</v>
       </c>
       <c r="O8" s="3">
+        <v>700</v>
+      </c>
+      <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>500</v>
-      </c>
-      <c r="U9" s="3">
-        <v>300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>300</v>
       </c>
       <c r="W9" s="3">
         <v>300</v>
@@ -918,93 +931,105 @@
         <v>300</v>
       </c>
       <c r="Y9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
       </c>
       <c r="G10" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,16 +1057,18 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1053,49 +1080,49 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,46 +1219,52 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-400</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>-400</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1236,20 +1275,20 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1257,14 +1296,20 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,22 +1317,22 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
       <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>200</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1296,25 +1341,25 @@
         <v>200</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
       <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
-      </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1800</v>
       </c>
       <c r="R18" s="3">
         <v>-1100</v>
       </c>
       <c r="S18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1582,38 +1649,38 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-300</v>
       </c>
       <c r="T20" s="3">
         <v>200</v>
       </c>
       <c r="U20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1693,97 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+      <c r="H21" s="3">
+        <v>400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1736,10 +1815,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
@@ -1748,23 +1827,23 @@
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-2600</v>
       </c>
       <c r="AA23" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-2600</v>
       </c>
       <c r="AA26" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-2600</v>
       </c>
       <c r="AA27" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2506,38 +2645,38 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>300</v>
       </c>
       <c r="T32" s="3">
         <v>-200</v>
       </c>
       <c r="U32" s="3">
+        <v>300</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2689,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-2600</v>
       </c>
       <c r="AA33" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-2600</v>
       </c>
       <c r="AA35" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>3500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>7400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>9200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,162 +3254,180 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>400</v>
       </c>
       <c r="M43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
-      </c>
-      <c r="J44" s="3">
-        <v>900</v>
       </c>
       <c r="K44" s="3">
         <v>800</v>
       </c>
       <c r="L44" s="3">
+        <v>900</v>
+      </c>
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
+        <v>800</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1500</v>
       </c>
       <c r="V44" s="3">
         <v>1400</v>
       </c>
       <c r="W44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y44" s="3">
         <v>800</v>
-      </c>
-      <c r="X44" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>300</v>
       </c>
       <c r="Z44" s="3">
         <v>300</v>
       </c>
       <c r="AA44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,13 +3435,13 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -3256,135 +3453,147 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>8100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>9700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3455,90 +3664,102 @@
         <v>0</v>
       </c>
       <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>100</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,10 +3767,10 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -3567,10 +3788,10 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
@@ -3591,10 +3812,10 @@
         <v>500</v>
       </c>
       <c r="T49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V49" s="3">
         <v>600</v>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F54" s="3">
         <v>8500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>11800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,46 +4316,48 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1000</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>700</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
@@ -4105,37 +4366,43 @@
         <v>700</v>
       </c>
       <c r="R57" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
       </c>
       <c r="T57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>700</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
       <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,60 +4412,60 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
@@ -4209,10 +4476,16 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,153 +4493,165 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1500</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="L59" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>900</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>700</v>
       </c>
       <c r="AA59" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2000</v>
       </c>
       <c r="U60" s="3">
         <v>2100</v>
       </c>
       <c r="V60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4380,56 +4665,56 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4460,52 +4751,52 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1000</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>5200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>5800</v>
       </c>
       <c r="S66" s="3">
         <v>5200</v>
       </c>
       <c r="T66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="U66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V66" s="3">
         <v>4800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-53800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-53100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-52200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-52300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-51800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-51500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-50900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-49500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-48700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-47500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-46700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-44600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-44000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-41200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-39900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-38000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-36200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-33800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-31500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-29400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-27300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-24900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F76" s="3">
         <v>6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2800</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>2400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>9200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>10900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2200</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-2600</v>
       </c>
       <c r="AA81" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,31 +6209,33 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="F89" s="3">
         <v>-800</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6397,14 +6838,14 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -6421,13 +6862,13 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
@@ -6436,13 +6877,13 @@
         <v>-200</v>
       </c>
       <c r="T91" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
@@ -6451,16 +6892,22 @@
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6628,14 +7087,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6649,16 +7108,16 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
@@ -6667,13 +7126,13 @@
         <v>-200</v>
       </c>
       <c r="T94" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="U94" s="3">
         <v>-200</v>
       </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="W94" s="3">
         <v>-200</v>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7512,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7045,53 +7536,53 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>3900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7099,13 +7590,19 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>10200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-2100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>7700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,274 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2500</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
       </c>
       <c r="I8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
       </c>
       <c r="O9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>300</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
@@ -937,99 +944,105 @@
         <v>300</v>
       </c>
       <c r="AA9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-300</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>900</v>
       </c>
       <c r="R10" s="3">
         <v>900</v>
       </c>
       <c r="S10" s="3">
+        <v>900</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>100</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
       <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1101,31 +1115,31 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>200</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>8</v>
+      <c r="X12" s="3">
+        <v>200</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,17 +1242,20 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1243,31 +1263,31 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-400</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1281,8 +1301,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1290,8 +1310,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1302,14 +1322,17 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,7 +1346,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
@@ -1332,19 +1355,19 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>200</v>
       </c>
       <c r="O15" s="3">
         <v>200</v>
@@ -1353,16 +1376,16 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2500</v>
       </c>
       <c r="R17" s="3">
         <v>2500</v>
       </c>
       <c r="S17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2700</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2800</v>
       </c>
       <c r="Z17" s="3">
         <v>2800</v>
       </c>
       <c r="AA17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="AB17" s="3">
         <v>2700</v>
       </c>
       <c r="AC17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1655,35 +1689,35 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1699,31 +1733,34 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1731,64 +1768,67 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-2100</v>
       </c>
       <c r="Z21" s="3">
         <v>-2100</v>
       </c>
       <c r="AA21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-2400</v>
       </c>
       <c r="AC21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1806,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1821,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
@@ -1833,19 +1873,19 @@
         <v>300</v>
       </c>
       <c r="S22" s="3">
+        <v>300</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1865,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-2300</v>
       </c>
       <c r="X23" s="3">
         <v>-2300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-2300</v>
       </c>
       <c r="X26" s="3">
         <v>-2300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-2300</v>
       </c>
       <c r="X27" s="3">
         <v>-2300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2651,35 +2721,35 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2695,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-2300</v>
       </c>
       <c r="X33" s="3">
         <v>-2300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-2300</v>
       </c>
       <c r="X35" s="3">
         <v>-2300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="E41" s="3">
         <v>2800</v>
       </c>
       <c r="F41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>7400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,162 +3350,168 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1200</v>
       </c>
       <c r="I43" s="3">
         <v>1200</v>
       </c>
       <c r="J43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>500</v>
-      </c>
-      <c r="W43" s="3">
-        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
       </c>
       <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>800</v>
       </c>
       <c r="N44" s="3">
         <v>800</v>
       </c>
       <c r="O44" s="3">
+        <v>800</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>900</v>
-      </c>
-      <c r="S44" s="3">
-        <v>1200</v>
       </c>
       <c r="T44" s="3">
         <v>1200</v>
       </c>
       <c r="U44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V44" s="3">
         <v>1100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>800</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>300</v>
       </c>
       <c r="AA44" s="3">
         <v>300</v>
@@ -3424,15 +3520,18 @@
         <v>300</v>
       </c>
       <c r="AC44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -3441,10 +3540,10 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -3459,13 +3558,13 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3474,10 +3573,10 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3486,16 +3585,16 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
@@ -3504,96 +3603,102 @@
         <v>100</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3670,96 +3775,102 @@
         <v>0</v>
       </c>
       <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
         <v>100</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1800</v>
       </c>
       <c r="J48" s="3">
         <v>1800</v>
       </c>
       <c r="K48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2700</v>
       </c>
       <c r="R48" s="3">
         <v>2700</v>
       </c>
       <c r="S48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="T48" s="3">
         <v>2500</v>
       </c>
       <c r="U48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V48" s="3">
         <v>2400</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2200</v>
       </c>
       <c r="W48" s="3">
         <v>2200</v>
       </c>
       <c r="X48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>1800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>1600</v>
       </c>
       <c r="AA48" s="3">
         <v>1600</v>
       </c>
       <c r="AB48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AC48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3773,7 +3884,7 @@
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -3794,7 +3905,7 @@
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
@@ -3818,7 +3929,7 @@
         <v>500</v>
       </c>
       <c r="V49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W49" s="3">
         <v>600</v>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>5100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,73 +4448,74 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
@@ -4393,16 +4524,19 @@
         <v>400</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
       <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4418,56 +4552,56 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>1700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1600</v>
       </c>
       <c r="S58" s="3">
         <v>1600</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="T58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4482,10 +4616,13 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4493,10 +4630,10 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
@@ -4505,19 +4642,19 @@
         <v>500</v>
       </c>
       <c r="I59" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
@@ -4526,132 +4663,138 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1100</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2100</v>
       </c>
       <c r="U60" s="3">
         <v>2100</v>
       </c>
       <c r="V60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1400</v>
       </c>
       <c r="Z60" s="3">
         <v>1400</v>
       </c>
       <c r="AA60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB60" s="3">
         <v>1100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4671,53 +4814,53 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>600</v>
       </c>
       <c r="L61" s="3">
+        <v>600</v>
+      </c>
+      <c r="M61" s="3">
         <v>1200</v>
-      </c>
-      <c r="M61" s="3">
-        <v>1700</v>
       </c>
       <c r="N61" s="3">
         <v>1700</v>
       </c>
       <c r="O61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4733,13 +4876,16 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4757,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -4775,31 +4921,31 @@
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1000</v>
       </c>
       <c r="W62" s="3">
         <v>1000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
+      <c r="X62" s="3">
+        <v>1000</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5200</v>
-      </c>
-      <c r="V66" s="3">
-        <v>4800</v>
       </c>
       <c r="W66" s="3">
         <v>4800</v>
       </c>
       <c r="X66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1400</v>
       </c>
       <c r="Z66" s="3">
         <v>1400</v>
       </c>
       <c r="AA66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-58400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-56500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-51800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-50900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-49500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-48700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-41200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-39900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-38000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-33800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-29400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-27300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-24900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
       <c r="U76" s="3">
         <v>0</v>
       </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-2300</v>
       </c>
       <c r="X81" s="3">
         <v>-2300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6222,24 +6421,24 @@
       <c r="E83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1000</v>
       </c>
       <c r="O89" s="3">
         <v>-1000</v>
       </c>
       <c r="P89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6844,11 +7065,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -6868,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
@@ -6883,19 +7104,19 @@
         <v>-200</v>
       </c>
       <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-100</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
@@ -6904,10 +7125,13 @@
         <v>-100</v>
       </c>
       <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7093,11 +7323,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -7114,13 +7344,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
@@ -7132,31 +7362,34 @@
         <v>-200</v>
       </c>
       <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7542,26 +7788,26 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7569,23 +7815,23 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>3900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7596,13 +7842,16 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>10200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>7700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,277 +665,284 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2500</v>
       </c>
       <c r="I8" s="3">
         <v>2500</v>
       </c>
       <c r="J8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>400</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
       </c>
       <c r="P9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>500</v>
-      </c>
-      <c r="X9" s="3">
-        <v>300</v>
       </c>
       <c r="Y9" s="3">
         <v>300</v>
@@ -947,102 +954,108 @@
         <v>300</v>
       </c>
       <c r="AB9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC9" s="3">
         <v>200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-300</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
-      </c>
-      <c r="R10" s="3">
-        <v>900</v>
       </c>
       <c r="S10" s="3">
         <v>900</v>
       </c>
       <c r="T10" s="3">
+        <v>900</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>100</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
       <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1118,31 +1132,31 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
         <v>-100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
-      </c>
-      <c r="W12" s="3">
-        <v>200</v>
       </c>
       <c r="X12" s="3">
         <v>200</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>8</v>
+      <c r="Y12" s="3">
+        <v>200</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>8</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,20 +1262,23 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1266,31 +1286,31 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1304,8 +1324,8 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1313,8 +1333,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1349,28 +1372,28 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1379,16 +1402,16 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
+        <v>200</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>200</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2500</v>
       </c>
       <c r="S17" s="3">
         <v>2500</v>
       </c>
       <c r="T17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2700</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>2800</v>
       </c>
       <c r="AA17" s="3">
         <v>2800</v>
       </c>
       <c r="AB17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="AC17" s="3">
         <v>2700</v>
       </c>
       <c r="AD17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AE17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1692,35 +1726,35 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-400</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1736,34 +1770,37 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
@@ -1771,67 +1808,70 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-2100</v>
       </c>
       <c r="AA21" s="3">
         <v>-2100</v>
       </c>
       <c r="AB21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-2400</v>
       </c>
       <c r="AD21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1849,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1864,7 +1904,7 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
@@ -1876,19 +1916,19 @@
         <v>300</v>
       </c>
       <c r="T22" s="3">
+        <v>300</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y23" s="3">
         <v>-2300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y26" s="3">
         <v>-2300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y27" s="3">
         <v>-2300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2724,35 +2794,35 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>400</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y33" s="3">
         <v>-2300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y35" s="3">
         <v>-2300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2800</v>
       </c>
       <c r="F41" s="3">
         <v>2800</v>
       </c>
       <c r="G41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>7400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>9200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,168 +3443,174 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1200</v>
       </c>
       <c r="J43" s="3">
         <v>1200</v>
       </c>
       <c r="K43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
-      </c>
-      <c r="X43" s="3">
-        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
         <v>600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>800</v>
       </c>
       <c r="O44" s="3">
         <v>800</v>
       </c>
       <c r="P44" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>900</v>
-      </c>
-      <c r="T44" s="3">
-        <v>1200</v>
       </c>
       <c r="U44" s="3">
         <v>1200</v>
       </c>
       <c r="V44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W44" s="3">
         <v>1100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>800</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>300</v>
       </c>
       <c r="AB44" s="3">
         <v>300</v>
@@ -3523,18 +3619,21 @@
         <v>300</v>
       </c>
       <c r="AD44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -3543,10 +3642,10 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -3561,13 +3660,13 @@
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3576,10 +3675,10 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3588,16 +3687,16 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>100</v>
@@ -3606,99 +3705,105 @@
         <v>100</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>9700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3778,99 +3883,105 @@
         <v>0</v>
       </c>
       <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
         <v>100</v>
       </c>
-      <c r="AD47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
-        <v>400</v>
-      </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1800</v>
       </c>
       <c r="K48" s="3">
         <v>1800</v>
       </c>
       <c r="L48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2700</v>
       </c>
       <c r="S48" s="3">
         <v>2700</v>
       </c>
       <c r="T48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="U48" s="3">
         <v>2500</v>
       </c>
       <c r="V48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W48" s="3">
         <v>2400</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2200</v>
       </c>
       <c r="X48" s="3">
         <v>2200</v>
       </c>
       <c r="Y48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1700</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>1600</v>
       </c>
       <c r="AB48" s="3">
         <v>1600</v>
       </c>
       <c r="AC48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AD48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3887,7 +3998,7 @@
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -3908,7 +4019,7 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
@@ -3932,7 +4043,7 @@
         <v>500</v>
       </c>
       <c r="W49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X49" s="3">
         <v>600</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K54" s="3">
+        <v>11100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>10800</v>
+      </c>
+      <c r="M54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="N54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="P54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="S54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
-        <v>8500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>11100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>10800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5900</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="T54" s="3">
+        <v>7300</v>
+      </c>
+      <c r="U54" s="3">
+        <v>7900</v>
+      </c>
+      <c r="V54" s="3">
         <v>5800</v>
       </c>
-      <c r="N54" s="3">
-        <v>6800</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="W54" s="3">
+        <v>5100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AA54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
-        <v>8100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>5100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>6600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>7300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>7900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>5800</v>
-      </c>
-      <c r="V54" s="3">
-        <v>5100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>5600</v>
-      </c>
-      <c r="X54" s="3">
-        <v>7200</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>5400</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>7400</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,76 +4579,77 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
@@ -4527,16 +4658,19 @@
         <v>400</v>
       </c>
       <c r="AB57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
       <c r="AD57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4555,56 +4689,56 @@
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
         <v>1700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1600</v>
       </c>
       <c r="T58" s="3">
         <v>1600</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4619,24 +4753,27 @@
         <v>0</v>
       </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E59" s="3">
         <v>500</v>
       </c>
       <c r="F59" s="3">
+        <v>500</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
@@ -4645,19 +4782,19 @@
         <v>500</v>
       </c>
       <c r="J59" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
       </c>
       <c r="L59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
@@ -4666,135 +4803,141 @@
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1100</v>
       </c>
       <c r="P60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2100</v>
       </c>
       <c r="V60" s="3">
         <v>2100</v>
       </c>
       <c r="W60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1400</v>
       </c>
       <c r="AA60" s="3">
         <v>1400</v>
       </c>
       <c r="AB60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4817,53 +4960,53 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>600</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
       </c>
       <c r="M61" s="3">
+        <v>600</v>
+      </c>
+      <c r="N61" s="3">
         <v>1200</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1700</v>
       </c>
       <c r="O61" s="3">
         <v>1700</v>
       </c>
       <c r="P61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4879,16 +5022,19 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4906,16 +5052,16 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -4924,31 +5070,31 @@
         <v>300</v>
       </c>
       <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1000</v>
       </c>
       <c r="X62" s="3">
         <v>1000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
+      <c r="Y62" s="3">
+        <v>1000</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5200</v>
-      </c>
-      <c r="W66" s="3">
-        <v>4800</v>
       </c>
       <c r="X66" s="3">
         <v>4800</v>
       </c>
       <c r="Y66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1400</v>
       </c>
       <c r="AA66" s="3">
         <v>1400</v>
       </c>
       <c r="AB66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59300</v>
       </c>
-      <c r="E72" s="3">
-        <v>-58400</v>
-      </c>
       <c r="F72" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-56500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-53800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-52200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-51800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-50900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-49500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-48700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-46700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-41200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-39900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-38000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-36200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-33800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-29400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-27300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-24900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
-        <v>2500</v>
-      </c>
       <c r="F76" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2800</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-2300</v>
       </c>
       <c r="Y81" s="3">
         <v>-2300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6428,20 +6627,20 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1000</v>
       </c>
       <c r="P89" s="3">
         <v>-1000</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7068,11 +7289,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -7092,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
@@ -7107,19 +7328,19 @@
         <v>-200</v>
       </c>
       <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-100</v>
       </c>
       <c r="AB91" s="3">
         <v>-100</v>
@@ -7128,10 +7349,13 @@
         <v>-100</v>
       </c>
       <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7326,11 +7556,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -7347,13 +7577,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
@@ -7365,31 +7595,34 @@
         <v>-200</v>
       </c>
       <c r="W94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7791,26 +8037,26 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7818,23 +8064,23 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>3900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2800</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
         <v>0</v>
       </c>
@@ -7845,13 +8091,16 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>10200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>7700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRFH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BRFH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,287 +665,294 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2500</v>
       </c>
       <c r="J8" s="3">
         <v>2500</v>
       </c>
       <c r="K8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
-        <v>3100</v>
-      </c>
       <c r="H9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>500</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>300</v>
       </c>
       <c r="Z9" s="3">
         <v>300</v>
@@ -957,105 +964,111 @@
         <v>300</v>
       </c>
       <c r="AC9" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD9" s="3">
         <v>200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>-700</v>
-      </c>
       <c r="H10" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-300</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
-      </c>
-      <c r="S10" s="3">
-        <v>900</v>
       </c>
       <c r="T10" s="3">
         <v>900</v>
       </c>
       <c r="U10" s="3">
+        <v>900</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>100</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
       <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1102,31 +1116,31 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1135,31 +1149,31 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>-100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
-      </c>
-      <c r="X12" s="3">
-        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>8</v>
+      <c r="Z12" s="3">
+        <v>200</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,12 +1296,12 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1289,31 +1309,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-400</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1327,8 +1347,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1336,8 +1356,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1378,25 +1401,25 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
@@ -1405,16 +1428,16 @@
         <v>200</v>
       </c>
       <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>200</v>
       </c>
       <c r="U15" s="3">
         <v>200</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2500</v>
       </c>
       <c r="T17" s="3">
         <v>2500</v>
       </c>
       <c r="U17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2700</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>2800</v>
       </c>
       <c r="AB17" s="3">
         <v>2800</v>
       </c>
       <c r="AC17" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="AD17" s="3">
         <v>2700</v>
       </c>
       <c r="AE17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AF17" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1729,35 +1763,35 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1773,37 +1807,40 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
@@ -1811,59 +1848,62 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-2100</v>
       </c>
       <c r="AB21" s="3">
         <v>-2100</v>
       </c>
       <c r="AC21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-2300</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>-2400</v>
       </c>
       <c r="AE21" s="3">
         <v>-2400</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1873,8 +1913,8 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1892,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1907,7 +1947,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>300</v>
@@ -1919,19 +1959,19 @@
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
-      </c>
-      <c r="W22" s="3">
-        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z23" s="3">
         <v>-2300</v>
       </c>
       <c r="AA23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z26" s="3">
         <v>-2300</v>
       </c>
       <c r="AA26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z27" s="3">
         <v>-2300</v>
       </c>
       <c r="AA27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2797,35 +2867,35 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z33" s="3">
         <v>-2300</v>
       </c>
       <c r="AA33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z35" s="3">
         <v>-2300</v>
       </c>
       <c r="AA35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3277,88 +3364,91 @@
         <v>1000</v>
       </c>
       <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2800</v>
       </c>
       <c r="G41" s="3">
         <v>2800</v>
       </c>
       <c r="H41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>7400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>9200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,174 +3536,180 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1200</v>
       </c>
       <c r="K43" s="3">
         <v>1200</v>
       </c>
       <c r="L43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>500</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>300</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
       </c>
       <c r="AA43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="3">
         <v>600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>200</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>800</v>
       </c>
       <c r="P44" s="3">
         <v>800</v>
       </c>
       <c r="Q44" s="3">
+        <v>800</v>
+      </c>
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>900</v>
-      </c>
-      <c r="U44" s="3">
-        <v>1200</v>
       </c>
       <c r="V44" s="3">
         <v>1200</v>
       </c>
       <c r="W44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X44" s="3">
         <v>1100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>800</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>300</v>
       </c>
       <c r="AC44" s="3">
         <v>300</v>
@@ -3622,21 +3718,24 @@
         <v>300</v>
       </c>
       <c r="AE44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -3645,10 +3744,10 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -3663,13 +3762,13 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -3678,10 +3777,10 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3690,16 +3789,16 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>100</v>
@@ -3708,102 +3807,108 @@
         <v>100</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>6500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>9700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3886,102 +3991,108 @@
         <v>0</v>
       </c>
       <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
         <v>100</v>
       </c>
-      <c r="AE47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1800</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
       </c>
       <c r="M48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2700</v>
       </c>
       <c r="T48" s="3">
         <v>2700</v>
       </c>
       <c r="U48" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="V48" s="3">
         <v>2500</v>
       </c>
       <c r="W48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X48" s="3">
         <v>2400</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2200</v>
       </c>
       <c r="Y48" s="3">
         <v>2200</v>
       </c>
       <c r="Z48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1700</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>1600</v>
       </c>
       <c r="AC48" s="3">
         <v>1600</v>
       </c>
       <c r="AD48" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="AE48" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4001,7 +4112,7 @@
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -4022,7 +4133,7 @@
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
@@ -4046,7 +4157,7 @@
         <v>500</v>
       </c>
       <c r="X49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y49" s="3">
         <v>600</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>11800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,79 +4710,80 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>400</v>
       </c>
       <c r="AA57" s="3">
         <v>400</v>
@@ -4661,87 +4792,90 @@
         <v>400</v>
       </c>
       <c r="AC57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AD57" s="3">
         <v>200</v>
       </c>
       <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
         <v>1700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1600</v>
       </c>
       <c r="U58" s="3">
         <v>1600</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4756,27 +4890,30 @@
         <v>0</v>
       </c>
       <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>500</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
       <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
@@ -4785,19 +4922,19 @@
         <v>500</v>
       </c>
       <c r="K59" s="3">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>1200</v>
       </c>
       <c r="M59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -4806,138 +4943,144 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1100</v>
       </c>
       <c r="Q60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
-      </c>
-      <c r="V60" s="3">
-        <v>2100</v>
       </c>
       <c r="W60" s="3">
         <v>2100</v>
       </c>
       <c r="X60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1400</v>
       </c>
       <c r="AB60" s="3">
         <v>1400</v>
       </c>
       <c r="AC60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD60" s="3">
         <v>1100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4963,53 +5106,53 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>600</v>
       </c>
       <c r="M61" s="3">
         <v>600</v>
       </c>
       <c r="N61" s="3">
+        <v>600</v>
+      </c>
+      <c r="O61" s="3">
         <v>1200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1700</v>
       </c>
       <c r="P61" s="3">
         <v>1700</v>
       </c>
       <c r="Q61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1700</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5036,8 +5182,8 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -5055,16 +5201,16 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>300</v>
@@ -5073,31 +5219,31 @@
         <v>300</v>
       </c>
       <c r="R62" s="3">
+        <v>300</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1100</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1000</v>
       </c>
       <c r="Y62" s="3">
         <v>1000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
+      <c r="Z62" s="3">
+        <v>1000</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>4800</v>
       </c>
       <c r="Y66" s="3">
         <v>4800</v>
       </c>
       <c r="Z66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1400</v>
       </c>
       <c r="AB66" s="3">
         <v>1400</v>
       </c>
       <c r="AC66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-59600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-58000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-53800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-52200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-51800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-51500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-50900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-49500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-41200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-39900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-36200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-33800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-29400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-27300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-24900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-22300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2800</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
         <v>0</v>
       </c>
       <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>9200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-2300</v>
       </c>
       <c r="Z81" s="3">
         <v>-2300</v>
       </c>
       <c r="AA81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-2400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6630,20 +6829,20 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q89" s="3">
         <v>-1000</v>
       </c>
       <c r="R89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7292,11 +7513,11 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -7316,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-200</v>
@@ -7331,19 +7552,19 @@
         <v>-200</v>
       </c>
       <c r="X91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-200</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-100</v>
       </c>
       <c r="AC91" s="3">
         <v>-100</v>
@@ -7352,10 +7573,13 @@
         <v>-100</v>
       </c>
       <c r="AE91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7559,11 +7789,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -7580,13 +7810,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-200</v>
@@ -7598,31 +7828,34 @@
         <v>-200</v>
       </c>
       <c r="X94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8040,26 +8286,26 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -8067,23 +8313,23 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>3900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2800</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
@@ -8094,13 +8340,16 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>10200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>7700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>200</v>
       </c>
     </row>
